--- a/Proposal_log.xlsx
+++ b/Proposal_log.xlsx
@@ -1,39 +1,121 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Estimating model 1.0.7.9\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1106EB-2866-4C60-BC70-FE9FD1D1E575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="754" yWindow="754" windowWidth="24686" windowHeight="13149" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="47028" yWindow="924" windowWidth="21768" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="log" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="log" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+  <si>
+    <t>Estimate Number</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Contact Name</t>
+  </si>
+  <si>
+    <t>Company name</t>
+  </si>
+  <si>
+    <t>Contact info</t>
+  </si>
+  <si>
+    <t>08/25/2021</t>
+  </si>
+  <si>
+    <t>Jeremy Abad</t>
+  </si>
+  <si>
+    <t>Jab Construction</t>
+  </si>
+  <si>
+    <t>503-347-4631</t>
+  </si>
+  <si>
+    <t>2752 SE Cypress St, Hillsboro, OR 97123</t>
+  </si>
+  <si>
+    <t>8820 N Ivanhoe St, Portland, OR 97203</t>
+  </si>
+  <si>
+    <t>Cathedral Park Apartments</t>
+  </si>
+  <si>
+    <t>jag</t>
+  </si>
+  <si>
+    <t>James Smedley</t>
+  </si>
+  <si>
+    <t>Ponte Winery</t>
+  </si>
+  <si>
+    <t>jsmedley@pontewinery.com | 951-331-1292</t>
+  </si>
+  <si>
+    <t>35053 Rancho California Rd, Temecula, CA 92591</t>
+  </si>
+  <si>
+    <t>Belvedar Deck</t>
+  </si>
+  <si>
+    <t>Customer Address</t>
+  </si>
+  <si>
+    <t>Job Address</t>
+  </si>
+  <si>
+    <t>Job Name</t>
+  </si>
+  <si>
+    <t>Sales Rep</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,85 +123,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,40 +425,778 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="A1:D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.61328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="41.23046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.15234375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1416</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1459</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
